--- a/Big Data Developer Nomination.xlsx
+++ b/Big Data Developer Nomination.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t xml:space="preserve"> PARTICIPANT EMP ID</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>koteswararao.p</t>
+  </si>
+  <si>
+    <t>Yalavarthi Sruthi</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -560,6 +563,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1342590</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2842302</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
